--- a/data/instances/benchmark/PCSPG-PUCNU/PCSPG-PUCNU - GREEDY.xlsx
+++ b/data/instances/benchmark/PCSPG-PUCNU/PCSPG-PUCNU - GREEDY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joyce\Documents\PET COPPE UFRJ\CPS 783\Trabalho CPS 783\prize-collecting-steiner-tree-main\data\results - GREEDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FC49E6-A176-496B-8EAC-39FA7E07E7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290C8E1F-B1A1-498A-BCD1-2D072D10FAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>filename</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -494,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -571,7 +574,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="2">
-        <v>8.5813999176025391E-3</v>
+        <v>3.308558464050293E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -579,31 +582,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2">
-        <v>288</v>
+        <v>750</v>
       </c>
       <c r="F3" s="2">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="G3" s="2">
-        <v>288</v>
+        <v>750</v>
       </c>
       <c r="H3" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2">
-        <v>8.9495182037353516E-3</v>
+        <v>0.12636518478393549</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -611,31 +614,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="E4" s="2">
-        <v>288</v>
+        <v>1215</v>
       </c>
       <c r="F4" s="2">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="G4" s="2">
-        <v>288</v>
+        <v>1215</v>
       </c>
       <c r="H4" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="J4" s="2">
-        <v>5.9797763824462891E-3</v>
+        <v>2.100020170211792</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -643,31 +646,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
         <v>64</v>
       </c>
       <c r="E5" s="2">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="F5" s="2">
         <v>64</v>
       </c>
       <c r="G5" s="2">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="H5" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2">
-        <v>7.6005458831787109E-3</v>
+        <v>0.19530296325683591</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -675,671 +678,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
+        <v>512</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2304</v>
+      </c>
+      <c r="F6" s="2">
+        <v>512</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2304</v>
+      </c>
+      <c r="H6" s="2">
         <v>64</v>
       </c>
-      <c r="E6" s="2">
-        <v>288</v>
-      </c>
-      <c r="F6" s="2">
-        <v>64</v>
-      </c>
-      <c r="G6" s="2">
-        <v>288</v>
-      </c>
-      <c r="H6" s="2">
-        <v>8</v>
-      </c>
       <c r="I6" s="2">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="J6" s="2">
-        <v>6.0470104217529297E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>125</v>
-      </c>
-      <c r="E7" s="2">
-        <v>750</v>
-      </c>
-      <c r="F7" s="2">
-        <v>125</v>
-      </c>
-      <c r="G7" s="2">
-        <v>750</v>
-      </c>
-      <c r="H7" s="2">
-        <v>13</v>
-      </c>
-      <c r="I7" s="2">
-        <v>34</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3.8035392761230469E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>125</v>
-      </c>
-      <c r="E8" s="2">
-        <v>750</v>
-      </c>
-      <c r="F8" s="2">
-        <v>125</v>
-      </c>
-      <c r="G8" s="2">
-        <v>750</v>
-      </c>
-      <c r="H8" s="2">
-        <v>13</v>
-      </c>
-      <c r="I8" s="2">
-        <v>34</v>
-      </c>
-      <c r="J8" s="2">
-        <v>3.338623046875E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>125</v>
-      </c>
-      <c r="E9" s="2">
-        <v>750</v>
-      </c>
-      <c r="F9" s="2">
-        <v>125</v>
-      </c>
-      <c r="G9" s="2">
-        <v>750</v>
-      </c>
-      <c r="H9" s="2">
-        <v>13</v>
-      </c>
-      <c r="I9" s="2">
-        <v>34</v>
-      </c>
-      <c r="J9" s="2">
-        <v>3.8299083709716797E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2">
-        <v>125</v>
-      </c>
-      <c r="E10" s="2">
-        <v>750</v>
-      </c>
-      <c r="F10" s="2">
-        <v>125</v>
-      </c>
-      <c r="G10" s="2">
-        <v>750</v>
-      </c>
-      <c r="H10" s="2">
-        <v>13</v>
-      </c>
-      <c r="I10" s="2">
-        <v>34</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3.6832332611083977E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>125</v>
-      </c>
-      <c r="E11" s="2">
-        <v>750</v>
-      </c>
-      <c r="F11" s="2">
-        <v>125</v>
-      </c>
-      <c r="G11" s="2">
-        <v>750</v>
-      </c>
-      <c r="H11" s="2">
-        <v>13</v>
-      </c>
-      <c r="I11" s="2">
-        <v>34</v>
-      </c>
-      <c r="J11" s="2">
-        <v>3.487396240234375E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>243</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1215</v>
-      </c>
-      <c r="F12" s="2">
-        <v>243</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1215</v>
-      </c>
-      <c r="H12" s="2">
-        <v>27</v>
-      </c>
-      <c r="I12" s="2">
-        <v>107</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1.068132162094116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>243</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1215</v>
-      </c>
-      <c r="F13" s="2">
-        <v>243</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1215</v>
-      </c>
-      <c r="H13" s="2">
-        <v>27</v>
-      </c>
-      <c r="I13" s="2">
-        <v>107</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1.0737922191619871</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>243</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1215</v>
-      </c>
-      <c r="F14" s="2">
-        <v>243</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1215</v>
-      </c>
-      <c r="H14" s="2">
-        <v>27</v>
-      </c>
-      <c r="I14" s="2">
-        <v>107</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1.0207560062408449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2">
-        <v>243</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1215</v>
-      </c>
-      <c r="F15" s="2">
-        <v>243</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1215</v>
-      </c>
-      <c r="H15" s="2">
-        <v>27</v>
-      </c>
-      <c r="I15" s="2">
-        <v>107</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1.1025815010070801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2">
-        <v>243</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1215</v>
-      </c>
-      <c r="F16" s="2">
-        <v>243</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1215</v>
-      </c>
-      <c r="H16" s="2">
-        <v>27</v>
-      </c>
-      <c r="I16" s="2">
-        <v>107</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1.033494234085083</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>64</v>
-      </c>
-      <c r="E17" s="2">
-        <v>192</v>
-      </c>
-      <c r="F17" s="2">
-        <v>64</v>
-      </c>
-      <c r="G17" s="2">
-        <v>192</v>
-      </c>
-      <c r="H17" s="2">
-        <v>12</v>
-      </c>
-      <c r="I17" s="2">
-        <v>30</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.15226006507873541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>64</v>
-      </c>
-      <c r="E18" s="2">
-        <v>192</v>
-      </c>
-      <c r="F18" s="2">
-        <v>64</v>
-      </c>
-      <c r="G18" s="2">
-        <v>192</v>
-      </c>
-      <c r="H18" s="2">
-        <v>12</v>
-      </c>
-      <c r="I18" s="2">
-        <v>30</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.15111351013183591</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2">
-        <v>64</v>
-      </c>
-      <c r="E19" s="2">
-        <v>192</v>
-      </c>
-      <c r="F19" s="2">
-        <v>64</v>
-      </c>
-      <c r="G19" s="2">
-        <v>192</v>
-      </c>
-      <c r="H19" s="2">
-        <v>12</v>
-      </c>
-      <c r="I19" s="2">
-        <v>30</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.15779423713684079</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2">
-        <v>64</v>
-      </c>
-      <c r="E20" s="2">
-        <v>192</v>
-      </c>
-      <c r="F20" s="2">
-        <v>64</v>
-      </c>
-      <c r="G20" s="2">
-        <v>192</v>
-      </c>
-      <c r="H20" s="2">
-        <v>12</v>
-      </c>
-      <c r="I20" s="2">
-        <v>30</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.15209174156188959</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2">
-        <v>64</v>
-      </c>
-      <c r="E21" s="2">
-        <v>192</v>
-      </c>
-      <c r="F21" s="2">
-        <v>64</v>
-      </c>
-      <c r="G21" s="2">
-        <v>192</v>
-      </c>
-      <c r="H21" s="2">
-        <v>12</v>
-      </c>
-      <c r="I21" s="2">
-        <v>30</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.15392160415649411</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>512</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2304</v>
-      </c>
-      <c r="F22" s="2">
-        <v>512</v>
-      </c>
-      <c r="G22" s="2">
-        <v>2304</v>
-      </c>
-      <c r="H22" s="2">
-        <v>64</v>
-      </c>
-      <c r="I22" s="2">
-        <v>225</v>
-      </c>
-      <c r="J22" s="2">
-        <v>2433.2144601345062</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>512</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2304</v>
-      </c>
-      <c r="F23" s="2">
-        <v>512</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2304</v>
-      </c>
-      <c r="H23" s="2">
-        <v>64</v>
-      </c>
-      <c r="I23" s="2">
-        <v>225</v>
-      </c>
-      <c r="J23" s="2">
-        <v>3197.6104521751399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="2">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>512</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2304</v>
-      </c>
-      <c r="F24" s="2">
-        <v>512</v>
-      </c>
-      <c r="G24" s="2">
-        <v>2304</v>
-      </c>
-      <c r="H24" s="2">
-        <v>64</v>
-      </c>
-      <c r="I24" s="2">
-        <v>225</v>
-      </c>
-      <c r="J24" s="2">
-        <v>4493.1083192825317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="2">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2">
-        <v>512</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2304</v>
-      </c>
-      <c r="F25" s="2">
-        <v>512</v>
-      </c>
-      <c r="G25" s="2">
-        <v>2304</v>
-      </c>
-      <c r="H25" s="2">
-        <v>64</v>
-      </c>
-      <c r="I25" s="2">
-        <v>225</v>
-      </c>
-      <c r="J25" s="2">
-        <v>2750.82488322258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="2">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2">
-        <v>512</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2304</v>
-      </c>
-      <c r="F26" s="2">
-        <v>512</v>
-      </c>
-      <c r="G26" s="2">
-        <v>2304</v>
-      </c>
-      <c r="H26" s="2">
-        <v>64</v>
-      </c>
-      <c r="I26" s="2">
-        <v>225</v>
-      </c>
-      <c r="J26" s="2">
-        <v>2314.8479490280151</v>
+        <v>2658.201116085052</v>
       </c>
     </row>
   </sheetData>
@@ -1357,7 +720,9 @@
   <cols>
     <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.5546875" bestFit="1" customWidth="1"/>
@@ -1466,37 +831,37 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>7.4316501617431637E-3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.385598998564261E-3</v>
+        <v>3.308558464050293E-2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E4" s="2">
-        <v>5.9797763824462891E-3</v>
+        <v>3.308558464050293E-2</v>
       </c>
       <c r="F4" s="2">
-        <v>6.0470104217529297E-3</v>
+        <v>3.308558464050293E-2</v>
       </c>
       <c r="G4" s="2">
-        <v>7.6005458831787109E-3</v>
+        <v>3.308558464050293E-2</v>
       </c>
       <c r="H4" s="2">
-        <v>8.5813999176025391E-3</v>
+        <v>3.308558464050293E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>8.9495182037353516E-3</v>
+        <v>3.308558464050293E-2</v>
       </c>
       <c r="J4" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2">
         <v>17</v>
       </c>
-      <c r="L4" s="2">
-        <v>0</v>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="M4" s="2">
         <v>17</v>
@@ -1519,37 +884,37 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>3.6285400390625E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2.110324151120523E-3</v>
+        <v>0.12636518478393549</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="2">
-        <v>3.338623046875E-2</v>
+        <v>0.12636518478393549</v>
       </c>
       <c r="F5" s="2">
-        <v>3.487396240234375E-2</v>
+        <v>0.12636518478393549</v>
       </c>
       <c r="G5" s="2">
-        <v>3.6832332611083977E-2</v>
+        <v>0.12636518478393549</v>
       </c>
       <c r="H5" s="2">
-        <v>3.8035392761230469E-2</v>
+        <v>0.12636518478393549</v>
       </c>
       <c r="I5" s="2">
-        <v>3.8299083709716797E-2</v>
+        <v>0.12636518478393549</v>
       </c>
       <c r="J5" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
         <v>34</v>
       </c>
-      <c r="L5" s="2">
-        <v>0</v>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="M5" s="2">
         <v>34</v>
@@ -1572,37 +937,37 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>1.059751224517822</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3.2832448981364309E-2</v>
+        <v>2.100020170211792</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E6" s="2">
-        <v>1.0207560062408449</v>
+        <v>2.100020170211792</v>
       </c>
       <c r="F6" s="2">
-        <v>1.033494234085083</v>
+        <v>2.100020170211792</v>
       </c>
       <c r="G6" s="2">
-        <v>1.068132162094116</v>
+        <v>2.100020170211792</v>
       </c>
       <c r="H6" s="2">
-        <v>1.0737922191619871</v>
+        <v>2.100020170211792</v>
       </c>
       <c r="I6" s="2">
-        <v>1.1025815010070801</v>
+        <v>2.100020170211792</v>
       </c>
       <c r="J6" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
         <v>107</v>
       </c>
-      <c r="L6" s="2">
-        <v>0</v>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="M6" s="2">
         <v>107</v>
@@ -1625,37 +990,37 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>0.1534362316131592</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2.6369421184738238E-3</v>
+        <v>0.19530296325683591</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="2">
-        <v>0.15111351013183591</v>
+        <v>0.19530296325683591</v>
       </c>
       <c r="F7" s="2">
-        <v>0.15209174156188959</v>
+        <v>0.19530296325683591</v>
       </c>
       <c r="G7" s="2">
-        <v>0.15226006507873541</v>
+        <v>0.19530296325683591</v>
       </c>
       <c r="H7" s="2">
-        <v>0.15392160415649411</v>
+        <v>0.19530296325683591</v>
       </c>
       <c r="I7" s="2">
-        <v>0.15779423713684079</v>
+        <v>0.19530296325683591</v>
       </c>
       <c r="J7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2">
         <v>30</v>
       </c>
-      <c r="L7" s="2">
-        <v>0</v>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="M7" s="2">
         <v>30</v>
@@ -1678,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>3037.9212127685551</v>
-      </c>
-      <c r="D8" s="2">
-        <v>882.32642372354996</v>
+        <v>2658.201116085052</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="2">
-        <v>2314.8479490280151</v>
+        <v>2658.201116085052</v>
       </c>
       <c r="F8" s="2">
-        <v>2433.2144601345062</v>
+        <v>2658.201116085052</v>
       </c>
       <c r="G8" s="2">
-        <v>2750.82488322258</v>
+        <v>2658.201116085052</v>
       </c>
       <c r="H8" s="2">
-        <v>3197.6104521751399</v>
+        <v>2658.201116085052</v>
       </c>
       <c r="I8" s="2">
-        <v>4493.1083192825317</v>
+        <v>2658.201116085052</v>
       </c>
       <c r="J8" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2">
         <v>225</v>
       </c>
-      <c r="L8" s="2">
-        <v>0</v>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="M8" s="2">
         <v>225</v>
